--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_Qmaps.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_Qmaps.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
   <si>
     <t>STT</t>
   </si>
@@ -226,6 +226,24 @@
   </si>
   <si>
     <t>H</t>
+  </si>
+  <si>
+    <t>125.212.203.114/15050</t>
+  </si>
+  <si>
+    <t>Thiết bị hết hạn DV</t>
+  </si>
+  <si>
+    <t>BT</t>
+  </si>
+  <si>
+    <t>Thể</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200520</t>
+  </si>
+  <si>
+    <t>E.2.00.---24.200401</t>
   </si>
 </sst>
 </file>
@@ -598,6 +616,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -613,32 +655,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -950,7 +968,7 @@
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -982,43 +1000,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1063,58 +1081,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="64" t="s">
+      <c r="O4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="62" t="s">
+      <c r="P4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="64" t="s">
+      <c r="Q4" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="64" t="s">
+      <c r="R4" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1139,23 +1157,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="65"/>
-      <c r="P5" s="63"/>
-      <c r="Q5" s="65"/>
-      <c r="R5" s="65"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="66"/>
+      <c r="R5" s="66"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1165,7 +1183,9 @@
       <c r="B6" s="54">
         <v>44764</v>
       </c>
-      <c r="C6" s="54"/>
+      <c r="C6" s="54">
+        <v>44768</v>
+      </c>
       <c r="D6" s="37" t="s">
         <v>45</v>
       </c>
@@ -1177,19 +1197,33 @@
         <v>64</v>
       </c>
       <c r="H6" s="37"/>
-      <c r="I6" s="51"/>
+      <c r="I6" s="51" t="s">
+        <v>65</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="55"/>
+      <c r="K6" s="55" t="s">
+        <v>69</v>
+      </c>
       <c r="L6" s="39"/>
-      <c r="M6" s="39"/>
+      <c r="M6" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="39"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1204,7 +1238,9 @@
       <c r="B7" s="54">
         <v>44764</v>
       </c>
-      <c r="C7" s="54"/>
+      <c r="C7" s="54">
+        <v>44768</v>
+      </c>
       <c r="D7" s="37" t="s">
         <v>45</v>
       </c>
@@ -1215,20 +1251,36 @@
       <c r="G7" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="51" t="s">
+        <v>65</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="55"/>
+      <c r="K7" s="55" t="s">
+        <v>70</v>
+      </c>
       <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
+      <c r="M7" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="39"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="2"/>
+      <c r="O7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1257,7 +1309,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1286,7 +1338,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1315,7 +1367,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1344,7 +1396,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1373,7 +1425,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1404,7 +1456,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1433,7 +1485,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1462,7 +1514,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1491,7 +1543,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1609,7 +1661,7 @@
       </c>
       <c r="V20" s="9">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W20" s="13"/>
     </row>
@@ -2078,7 +2130,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -2142,7 +2194,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3207,6 +3259,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3218,13 +3277,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3268,43 +3320,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="60"/>
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="60"/>
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="60"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="71" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="71"/>
+      <c r="F2" s="63"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3349,58 +3401,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="67" t="s">
+      <c r="A4" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="67" t="s">
+      <c r="K4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="64" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="64" t="s">
+      <c r="N4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="67" t="s">
+      <c r="O4" s="59" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="67" t="s">
+      <c r="Q4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="67" t="s">
+      <c r="R4" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="72" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="67" t="s">
+      <c r="U4" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="67" t="s">
+      <c r="V4" s="59" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
+      <c r="A5" s="64"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3425,23 +3477,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="67"/>
+      <c r="J5" s="59"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="O5" s="67"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="O5" s="59"/>
       <c r="P5" s="73"/>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="66"/>
+      <c r="Q5" s="59"/>
+      <c r="R5" s="59"/>
+      <c r="S5" s="72"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="67"/>
-      <c r="V5" s="67"/>
+      <c r="U5" s="59"/>
+      <c r="V5" s="59"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3467,7 +3519,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="59" t="s">
+      <c r="U6" s="67" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3498,7 +3550,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="60"/>
+      <c r="U7" s="68"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3527,7 +3579,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="60"/>
+      <c r="U8" s="68"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3556,7 +3608,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="60"/>
+      <c r="U9" s="68"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3585,7 +3637,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="60"/>
+      <c r="U10" s="68"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3614,7 +3666,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="60"/>
+      <c r="U11" s="68"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3643,7 +3695,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="59" t="s">
+      <c r="U12" s="67" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3674,7 +3726,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="60"/>
+      <c r="U13" s="68"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3703,7 +3755,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="60"/>
+      <c r="U14" s="68"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3732,7 +3784,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="60"/>
+      <c r="U15" s="68"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3761,7 +3813,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="61"/>
+      <c r="U16" s="69"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -4992,13 +5044,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5010,6 +5055,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_Qmaps.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang7/2.XulyBH/XLBH2207_Qmaps.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="69">
   <si>
     <t>STT</t>
   </si>
@@ -231,9 +231,6 @@
     <t>125.212.203.114/15050</t>
   </si>
   <si>
-    <t>Thiết bị hết hạn DV</t>
-  </si>
-  <si>
     <t>BT</t>
   </si>
   <si>
@@ -241,9 +238,6 @@
   </si>
   <si>
     <t>E.2.00.---24.200520</t>
-  </si>
-  <si>
-    <t>E.2.00.---24.200401</t>
   </si>
 </sst>
 </file>
@@ -616,6 +610,30 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -633,30 +651,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -967,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="J1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1000,43 +994,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1081,58 +1075,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="65" t="s">
+      <c r="O4" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="70" t="s">
+      <c r="P4" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="65" t="s">
+      <c r="Q4" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="65" t="s">
+      <c r="R4" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
@@ -1157,23 +1151,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="57" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="71"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="72"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1202,7 +1196,7 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="55" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="39"/>
       <c r="M6" s="39" t="s">
@@ -1210,10 +1204,10 @@
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="39" t="s">
         <v>67</v>
-      </c>
-      <c r="P6" s="39" t="s">
-        <v>68</v>
       </c>
       <c r="Q6" s="1" t="s">
         <v>19</v>
@@ -1223,7 +1217,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="56"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1245,21 +1239,19 @@
         <v>45</v>
       </c>
       <c r="E7" s="38">
-        <v>861359986893145</v>
+        <v>860906041229276</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="H7" s="37" t="s">
-        <v>66</v>
-      </c>
+      <c r="H7" s="37"/>
       <c r="I7" s="51" t="s">
         <v>65</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="55" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="L7" s="39"/>
       <c r="M7" s="39" t="s">
@@ -1267,10 +1259,10 @@
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="39" t="s">
         <v>67</v>
-      </c>
-      <c r="P7" s="39" t="s">
-        <v>68</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>19</v>
@@ -1280,7 +1272,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="56"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1309,7 +1301,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="56"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1338,7 +1330,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="56"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1367,7 +1359,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="56"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1396,7 +1388,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="56"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1425,7 +1417,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="56"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1456,7 +1448,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="56"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1485,7 +1477,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="56"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1514,7 +1506,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1543,7 +1535,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -3259,13 +3251,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3277,6 +3262,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3320,43 +3312,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63" t="s">
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="63"/>
+      <c r="F2" s="71"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -3401,58 +3393,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="59" t="s">
+      <c r="A4" s="72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59" t="s">
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="59" t="s">
+      <c r="K4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="59"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="65" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="59" t="s">
+      <c r="O4" s="67" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="59" t="s">
+      <c r="Q4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="59" t="s">
+      <c r="R4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="72" t="s">
+      <c r="S4" s="66" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="59" t="s">
+      <c r="U4" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="59" t="s">
+      <c r="V4" s="67" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="64"/>
+      <c r="A5" s="72"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3477,23 +3469,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="59"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="59"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="67"/>
       <c r="P5" s="73"/>
-      <c r="Q5" s="59"/>
-      <c r="R5" s="59"/>
-      <c r="S5" s="72"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="66"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="59"/>
-      <c r="V5" s="59"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="67"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3519,7 +3511,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="59" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3550,7 +3542,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="68"/>
+      <c r="U7" s="60"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3579,7 +3571,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="68"/>
+      <c r="U8" s="60"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3608,7 +3600,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="68"/>
+      <c r="U9" s="60"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3637,7 +3629,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="68"/>
+      <c r="U10" s="60"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3666,7 +3658,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="68"/>
+      <c r="U11" s="60"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3695,7 +3687,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="67" t="s">
+      <c r="U12" s="59" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3726,7 +3718,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="68"/>
+      <c r="U13" s="60"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3755,7 +3747,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="68"/>
+      <c r="U14" s="60"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3784,7 +3776,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="68"/>
+      <c r="U15" s="60"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3813,7 +3805,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="69"/>
+      <c r="U16" s="61"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5044,6 +5036,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5055,13 +5054,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
